--- a/fuentes/Data_Equipos.xlsx
+++ b/fuentes/Data_Equipos.xlsx
@@ -8,25 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eguerrero\Documents\parking\src\fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E586821C-3901-4D50-AFA6-A7398873C484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B27433-B254-4C4E-8B7B-98E74FB82F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7B7C007A-0B86-4081-9011-13F0127D2C35}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dimensiones" sheetId="1" r:id="rId1"/>
-    <sheet name="Ubicaciones" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
+    <sheet name="Dimensiones" sheetId="1" r:id="rId2"/>
+    <sheet name="Ubicaciones" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="99">
   <si>
     <t>Código del Equipo</t>
   </si>
@@ -43,12 +39,21 @@
     <t>COC03-CU130H</t>
   </si>
   <si>
+    <t>orange</t>
+  </si>
+  <si>
     <t>COK04-CU130H</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>CO506-CU075</t>
   </si>
   <si>
+    <t>gray</t>
+  </si>
+  <si>
     <t>COL06-CU075</t>
   </si>
   <si>
@@ -295,28 +300,25 @@
     <t>GEL24-CA080</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>gray</t>
-  </si>
-  <si>
-    <t>Equipo</t>
-  </si>
-  <si>
-    <t>Ubicación</t>
-  </si>
-  <si>
-    <t>Encargados</t>
-  </si>
-  <si>
-    <t>Transportista</t>
-  </si>
-  <si>
-    <t>Sede</t>
+    <t>COL06</t>
+  </si>
+  <si>
+    <t>72px</t>
+  </si>
+  <si>
+    <t>109px</t>
+  </si>
+  <si>
+    <t>rotate(0deg)</t>
+  </si>
+  <si>
+    <t>13/05/2023 12:54:01</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>TOP</t>
   </si>
 </sst>
 </file>
@@ -358,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -407,11 +409,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -421,6 +434,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,11 +751,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B829E0-3F6E-4B3C-849C-1A55A3CBB8A5}">
-  <dimension ref="A1:D86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BB2F58-D22A-4F86-9A95-092DC774579B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,7 +776,7 @@
     <col min="5" max="5" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="27.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,8 +789,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -773,20 +807,38 @@
         <v>2250</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>6600</v>
+      </c>
+      <c r="C3">
+        <v>2250</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>5010</v>
@@ -795,12 +847,18 @@
         <v>2300</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>4956</v>
@@ -809,12 +867,18 @@
         <v>2210</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>5400</v>
@@ -823,12 +887,18 @@
         <v>2000</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>3900</v>
@@ -837,12 +907,18 @@
         <v>1800</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>3900</v>
@@ -851,12 +927,18 @@
         <v>1800</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>5537</v>
@@ -865,12 +947,18 @@
         <v>1667</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>5140</v>
@@ -879,12 +967,18 @@
         <v>2000</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>2554</v>
@@ -893,12 +987,18 @@
         <v>1150</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>3100</v>
@@ -907,12 +1007,18 @@
         <v>1100</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>3100</v>
@@ -921,12 +1027,18 @@
         <v>1100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>2910</v>
@@ -935,12 +1047,18 @@
         <v>1100</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>2910</v>
@@ -949,12 +1067,18 @@
         <v>1100</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>6050</v>
@@ -963,12 +1087,18 @@
         <v>2430</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>6050</v>
@@ -977,12 +1107,18 @@
         <v>2430</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>6050</v>
@@ -991,12 +1127,18 @@
         <v>2430</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>6050</v>
@@ -1005,12 +1147,18 @@
         <v>2430</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>6050</v>
@@ -1019,12 +1167,18 @@
         <v>2430</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>3210</v>
@@ -1033,12 +1187,18 @@
         <v>1100</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>3200</v>
@@ -1047,12 +1207,18 @@
         <v>1100</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>3210</v>
@@ -1061,12 +1227,18 @@
         <v>1090</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>6030</v>
@@ -1075,12 +1247,18 @@
         <v>2430</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>6060</v>
@@ -1089,12 +1267,18 @@
         <v>2440</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>3350</v>
@@ -1103,12 +1287,18 @@
         <v>1100</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>12370</v>
@@ -1117,12 +1307,18 @@
         <v>2430</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>3710</v>
@@ -1131,12 +1327,18 @@
         <v>1150</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>12190</v>
@@ -1145,12 +1347,18 @@
         <v>2440</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>12190</v>
@@ -1159,12 +1367,18 @@
         <v>2440</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>9000</v>
@@ -1173,12 +1387,18 @@
         <v>2440</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>12190</v>
@@ -1187,12 +1407,18 @@
         <v>2440</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>12000</v>
@@ -1201,12 +1427,18 @@
         <v>2430</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>12190</v>
@@ -1215,12 +1447,18 @@
         <v>2440</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>12190</v>
@@ -1229,12 +1467,18 @@
         <v>2440</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>6060</v>
@@ -1243,12 +1487,18 @@
         <v>2440</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>2970</v>
@@ -1257,12 +1507,18 @@
         <v>1250</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>3600</v>
@@ -1271,12 +1527,18 @@
         <v>1080</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>3830</v>
@@ -1285,12 +1547,18 @@
         <v>1100</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>3520</v>
@@ -1299,12 +1567,18 @@
         <v>1100</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>2250</v>
@@ -1313,12 +1587,18 @@
         <v>730</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>3510</v>
@@ -1327,12 +1607,18 @@
         <v>1090</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>3510</v>
@@ -1341,12 +1627,18 @@
         <v>1090</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>16000</v>
@@ -1355,36 +1647,78 @@
         <v>2600</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>12190</v>
+      </c>
+      <c r="C45">
+        <v>2430</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>12190</v>
+      </c>
+      <c r="C46">
+        <v>2430</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>12190</v>
+      </c>
+      <c r="C47">
+        <v>2430</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>12190</v>
@@ -1393,12 +1727,18 @@
         <v>2430</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>12190</v>
@@ -1407,12 +1747,18 @@
         <v>2430</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>12160</v>
@@ -1421,12 +1767,18 @@
         <v>2352</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>12190</v>
@@ -1435,12 +1787,18 @@
         <v>2440</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>3700</v>
@@ -1449,12 +1807,18 @@
         <v>1100</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>3750</v>
@@ -1463,12 +1827,18 @@
         <v>1100</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>3700</v>
@@ -1477,12 +1847,18 @@
         <v>1100</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>100</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>3700</v>
@@ -1491,12 +1867,18 @@
         <v>1090</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>100</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>3700</v>
@@ -1505,12 +1887,18 @@
         <v>1090</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>100</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>3700</v>
@@ -1519,12 +1907,18 @@
         <v>1090</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>100</v>
+      </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>3700</v>
@@ -1533,12 +1927,18 @@
         <v>1090</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>100</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>5300</v>
@@ -1547,12 +1947,18 @@
         <v>1400</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>100</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>4380</v>
@@ -1561,12 +1967,18 @@
         <v>1420</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E60">
+        <v>100</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>4300</v>
@@ -1575,12 +1987,18 @@
         <v>1410</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>100</v>
+      </c>
+      <c r="F61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>4350</v>
@@ -1589,12 +2007,18 @@
         <v>1400</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>100</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>4380</v>
@@ -1603,12 +2027,18 @@
         <v>1420</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>100</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>4380</v>
@@ -1617,12 +2047,18 @@
         <v>1420</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>100</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
         <v>4380</v>
@@ -1631,12 +2067,18 @@
         <v>1420</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>100</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
         <v>2080</v>
@@ -1645,28 +2087,58 @@
         <v>960</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
+      </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>4700</v>
+      </c>
+      <c r="C67">
+        <v>1400</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E67">
+        <v>100</v>
+      </c>
+      <c r="F67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>4700</v>
+      </c>
+      <c r="C68">
+        <v>1400</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
         <v>4700</v>
@@ -1675,12 +2147,18 @@
         <v>1400</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>100</v>
+      </c>
+      <c r="F69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>4710</v>
@@ -1689,12 +2167,18 @@
         <v>1400</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <v>100</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
         <v>4700</v>
@@ -1703,12 +2187,18 @@
         <v>1400</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>100</v>
+      </c>
+      <c r="F71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
         <v>6050</v>
@@ -1717,12 +2207,18 @@
         <v>2430</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <v>100</v>
+      </c>
+      <c r="F72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
         <v>4760</v>
@@ -1731,20 +2227,38 @@
         <v>1820</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E73">
+        <v>100</v>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>4760</v>
+      </c>
+      <c r="C74">
+        <v>1820</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>100</v>
+      </c>
+      <c r="F74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
         <v>4800</v>
@@ -1753,12 +2267,18 @@
         <v>1900</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <v>100</v>
+      </c>
+      <c r="F75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
         <v>2700</v>
@@ -1767,12 +2287,18 @@
         <v>1100</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E76">
+        <v>100</v>
+      </c>
+      <c r="F76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
         <v>2680</v>
@@ -1781,12 +2307,18 @@
         <v>1100</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>100</v>
+      </c>
+      <c r="F77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>3700</v>
@@ -1795,12 +2327,18 @@
         <v>1960</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <v>100</v>
+      </c>
+      <c r="F78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>6050</v>
@@ -1809,20 +2347,38 @@
         <v>2430</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <v>100</v>
+      </c>
+      <c r="F79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>6050</v>
+      </c>
+      <c r="C80">
+        <v>2430</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>100</v>
+      </c>
+      <c r="F80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
         <v>5600</v>
@@ -1831,12 +2387,18 @@
         <v>1950</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E81">
+        <v>100</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>5600</v>
@@ -1845,12 +2407,18 @@
         <v>1950</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="E82">
+        <v>100</v>
+      </c>
+      <c r="F82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
         <v>6060</v>
@@ -1859,12 +2427,18 @@
         <v>2440</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+      <c r="F83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>2300</v>
@@ -1873,12 +2447,18 @@
         <v>1060</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="E84">
+        <v>100</v>
+      </c>
+      <c r="F84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
         <v>6050</v>
@@ -1887,47 +2467,68 @@
         <v>2430</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85">
+        <v>100</v>
+      </c>
+      <c r="F85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>88</v>
+      <c r="B86">
+        <v>6050</v>
+      </c>
+      <c r="C86">
+        <v>2430</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>90</v>
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>100</v>
+      </c>
+      <c r="F86">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1ECEC5-313A-4212-A8D9-30CE82E682FA}">
-  <dimension ref="A1:E1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>95</v>
       </c>
     </row>
